--- a/public/xlsx/create-product-input-upload.xlsx
+++ b/public/xlsx/create-product-input-upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Develop\Work\bstock\public\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB589FB4-3B8E-4103-A3DD-205D7E8D9BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABE5D03-A5B7-456A-AAB9-636519773A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nome</t>
   </si>
@@ -28,7 +28,16 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t/>
+    <t>Microcontrolador (ESP32)</t>
+  </si>
+  <si>
+    <t>Módulo GPS (u-blox NEO-6M)</t>
+  </si>
+  <si>
+    <t>Módulo GSM (SIM800L)</t>
+  </si>
+  <si>
+    <t>Antena GPS</t>
   </si>
 </sst>
 </file>
@@ -91,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -99,13 +108,18 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,13 +429,13 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -434,30 +448,46 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+    </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M8" s="6"/>
+      <c r="M8" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erro de validação!" error="O dado inserido não corresponde a um valor decimal." prompt="Use a virgula para valores decimais." sqref="B2:B1048576" xr:uid="{0816AB21-B31B-4645-8D0C-C19EC1E87EB4}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>